--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_8_10.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_8_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-976622.9414859704</v>
+        <v>-979472.3636752989</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>246.6542911666821</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>151.6179615784306</v>
+        <v>284.0403306165522</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>82.85374403943783</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>281.5496867510633</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,19 +896,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>168.8662234075638</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>177.7240079450979</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>128.4970238253393</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>168.4728191948447</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,10 +1145,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>301.1133654449361</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.1547862223006</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>319.0811060013789</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>6.980384243200308</v>
+        <v>11.89818872724476</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1382,10 +1382,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1537,10 +1537,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922705</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>30.0683013140562</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1585,7 +1585,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>137.9792024346624</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1604,13 +1604,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,7 +1774,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>9.570729811036209</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1825,10 +1825,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>173.4756821528522</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H19" t="n">
-        <v>19.91555826189057</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2242,16 +2242,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2290,10 +2290,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>171.4144753991464</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2479,13 +2479,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,13 +2530,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>60.11729550773637</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>96.99837838564352</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2843,7 +2843,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576149</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2950,13 +2950,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>78.34975387299224</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3190,7 +3190,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261734</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
         <v>122.1493151545294</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652651</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3433,7 +3433,7 @@
         <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308922</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
         <v>141.2394908002291</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652651</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3907,7 +3907,7 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
         <v>141.2394908002292</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652587</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808202</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3952,7 +3952,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1331.061315312042</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="C2" t="n">
-        <v>1331.061315312042</v>
+        <v>743.4641313436935</v>
       </c>
       <c r="D2" t="n">
-        <v>1331.061315312042</v>
+        <v>743.4641313436935</v>
       </c>
       <c r="E2" t="n">
-        <v>945.273062713798</v>
+        <v>494.3183826904792</v>
       </c>
       <c r="F2" t="n">
-        <v>534.2871579241905</v>
+        <v>494.3183826904792</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4358,22 +4358,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>2057.295728843236</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W2" t="n">
-        <v>1704.527073573122</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X2" t="n">
-        <v>1331.061315312042</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="Y2" t="n">
-        <v>1331.061315312042</v>
+        <v>1112.426648284105</v>
       </c>
     </row>
     <row r="3">
@@ -4401,31 +4401,31 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.942782082032</v>
+        <v>416.4487827635302</v>
       </c>
       <c r="C4" t="n">
-        <v>222.942782082032</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="D4" t="n">
-        <v>222.942782082032</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="E4" t="n">
-        <v>222.942782082032</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4519,19 +4519,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>443.7353612255621</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>443.7353612255621</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>443.7353612255621</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>443.7353612255621</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.942782082032</v>
+        <v>500.1394333084169</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1546.944160717209</v>
+        <v>1156.179761166176</v>
       </c>
       <c r="C5" t="n">
-        <v>1376.372217881286</v>
+        <v>1156.179761166176</v>
       </c>
       <c r="D5" t="n">
-        <v>1018.106519274536</v>
+        <v>797.9140625594257</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762915</v>
+        <v>797.9140625594257</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>386.9281577698181</v>
       </c>
       <c r="G5" t="n">
         <v>207.4089578252748</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018222</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="X5" t="n">
-        <v>2323.683332757143</v>
+        <v>1542.779601230298</v>
       </c>
       <c r="Y5" t="n">
-        <v>1933.544000781331</v>
+        <v>1542.779601230298</v>
       </c>
     </row>
     <row r="6">
@@ -4620,73 +4620,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>337.1618402196266</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C7" t="n">
-        <v>337.1618402196266</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>337.1618402196266</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>337.1618402196266</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>450.1873520796696</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="X7" t="n">
-        <v>557.9544193631567</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="Y7" t="n">
-        <v>337.1618402196266</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1842.057685966963</v>
+        <v>1222.030215538135</v>
       </c>
       <c r="C8" t="n">
-        <v>1473.095169026551</v>
+        <v>1222.030215538135</v>
       </c>
       <c r="D8" t="n">
-        <v>1473.095169026551</v>
+        <v>863.7645169313847</v>
       </c>
       <c r="E8" t="n">
-        <v>1087.306916428307</v>
+        <v>477.9762643331405</v>
       </c>
       <c r="F8" t="n">
-        <v>676.3210116386995</v>
+        <v>66.99035954353293</v>
       </c>
       <c r="G8" t="n">
-        <v>372.1660970478549</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4808,13 +4808,13 @@
         <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>1094.46325341956</v>
+        <v>1026.437034711773</v>
       </c>
       <c r="M8" t="n">
-        <v>1281.162666244967</v>
+        <v>1658.154845695085</v>
       </c>
       <c r="N8" t="n">
-        <v>1475.49687913695</v>
+        <v>1852.489058587068</v>
       </c>
       <c r="O8" t="n">
         <v>2022.658083904027</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="T8" t="n">
-        <v>2482.349229285934</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="U8" t="n">
-        <v>2228.657526031085</v>
+        <v>2287.242350260201</v>
       </c>
       <c r="V8" t="n">
-        <v>2228.657526031085</v>
+        <v>2287.242350260201</v>
       </c>
       <c r="W8" t="n">
-        <v>2228.657526031085</v>
+        <v>1934.473694990087</v>
       </c>
       <c r="X8" t="n">
-        <v>2228.657526031085</v>
+        <v>1612.169547513947</v>
       </c>
       <c r="Y8" t="n">
-        <v>2228.657526031085</v>
+        <v>1222.030215538135</v>
       </c>
     </row>
     <row r="9">
@@ -4890,7 +4890,7 @@
         <v>887.7329259922928</v>
       </c>
       <c r="M9" t="n">
-        <v>1067.230262346898</v>
+        <v>1233.514064314702</v>
       </c>
       <c r="N9" t="n">
         <v>1432.170805967367</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>524.7175635076092</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>524.7175635076092</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>524.7175635076092</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>376.804469925216</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>376.804469925216</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>208.1976249205994</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4990,22 +4990,22 @@
         <v>1053.877663279709</v>
       </c>
       <c r="T10" t="n">
-        <v>1046.826770104759</v>
+        <v>1041.859290827947</v>
       </c>
       <c r="U10" t="n">
-        <v>1046.826770104759</v>
+        <v>752.7071144056265</v>
       </c>
       <c r="V10" t="n">
-        <v>792.1422818988725</v>
+        <v>752.7071144056265</v>
       </c>
       <c r="W10" t="n">
-        <v>502.7251118619119</v>
+        <v>752.7071144056265</v>
       </c>
       <c r="X10" t="n">
-        <v>274.7355609638946</v>
+        <v>524.7175635076092</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>524.7175635076092</v>
       </c>
     </row>
     <row r="11">
@@ -5030,19 +5030,19 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5057,7 +5057,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5115,22 +5115,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>951.7772127656177</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>782.8410298377108</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>632.7243904253751</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>484.811296842982</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>484.811296842982</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578602</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2416.591062050911</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2233.736227705815</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>2233.736227705815</v>
       </c>
       <c r="U13" t="n">
-        <v>2157.887856924458</v>
+        <v>1944.661001050013</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1689.976512844126</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1400.559342807165</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1172.569791909148</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>951.7772127656177</v>
       </c>
     </row>
     <row r="14">
@@ -5273,22 +5273,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5352,28 +5352,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>961.4446166151475</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="C16" t="n">
-        <v>792.5084336872407</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D16" t="n">
-        <v>642.3917942749049</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E16" t="n">
-        <v>494.4787006925118</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5473,13 +5473,13 @@
         <v>1653.302830625878</v>
       </c>
       <c r="W16" t="n">
-        <v>1363.885660588917</v>
+        <v>1478.07486885532</v>
       </c>
       <c r="X16" t="n">
-        <v>1363.885660588917</v>
+        <v>1250.085317957303</v>
       </c>
       <c r="Y16" t="n">
-        <v>1143.093081445387</v>
+        <v>1029.292738813773</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5546,19 +5546,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5592,19 +5592,19 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>261.8464821474262</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>113.9333885650331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>113.9333885650331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>113.9333885650331</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5741,7 +5741,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5832,19 +5832,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452614</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>849.3843576263199</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>680.448174698413</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>530.3315352860773</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
@@ -5938,22 +5938,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2023.916610740955</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>2023.916610740955</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1769.232122535068</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1479.814952498107</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1251.82540160009</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>1031.03282245656</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5984,22 +5984,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819251</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6069,22 +6069,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L24" t="n">
-        <v>119.290296770379</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>2044.506784258106</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1789.822296052219</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6212,31 +6212,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>734.6461798836013</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>565.7099969556945</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>415.5933575433587</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>415.5933575433587</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>415.5933575433587</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>916.2946447138411</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6440,43 +6440,43 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6488,22 +6488,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,10 +6534,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6652,19 +6652,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1898.319914982233</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1643.635426776346</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="32">
@@ -6698,7 +6698,7 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6707,10 +6707,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6838,19 +6838,19 @@
         <v>782.5512955656824</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150022</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580121</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345483</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384027</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -7081,13 +7081,13 @@
         <v>533.5814564942661</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580121</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345483</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384027</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7154,10 +7154,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>120.680066384834</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>454.6048385560546</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F40" t="n">
-        <v>411.221455958011</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311319</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7345,16 +7345,16 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q40" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
         <v>2438.456847547834</v>
@@ -7363,19 +7363,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="41">
@@ -7400,10 +7400,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C43" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954148</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,19 +7591,19 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7831,7 +7831,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8456,16 +8456,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>312.2066704284449</v>
+        <v>243.4933181983575</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>321.7987081714826</v>
@@ -8538,10 +8538,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>167.9634363311152</v>
       </c>
       <c r="N9" t="n">
-        <v>167.9634363311153</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8696,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -9179,13 +9179,13 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9407,13 +9407,13 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9878,7 +9878,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14.75763950861518</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>135.2760789055797</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>262.1662084423644</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22705,16 +22705,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22747,25 +22747,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,7 +23425,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>36.30694539606549</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016463</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,7 +23662,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>135.850318211895</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272892</v>
+        <v>217.40545032729</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,10 +23713,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>113.0473161837388</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H19" t="n">
-        <v>120.3791545843333</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24130,16 +24130,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24178,10 +24178,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>45.9909749281419</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24367,13 +24367,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,13 +24418,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>226.4057028288546</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>68.52575990662532</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,13 +24838,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>207.8347205162519</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-5.988543122513853e-13</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25321,7 +25321,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>-7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1086376.121648346</v>
+        <v>1086376.121648345</v>
       </c>
     </row>
     <row r="3">
@@ -26317,7 +26317,7 @@
         <v>205260.4424660708</v>
       </c>
       <c r="D2" t="n">
-        <v>205260.4424660709</v>
+        <v>205260.4424660708</v>
       </c>
       <c r="E2" t="n">
         <v>201786.6499225016</v>
@@ -26326,7 +26326,7 @@
         <v>201786.6499225015</v>
       </c>
       <c r="G2" t="n">
-        <v>201786.6499225015</v>
+        <v>201786.6499225016</v>
       </c>
       <c r="H2" t="n">
         <v>201786.6499225016</v>
@@ -26347,7 +26347,7 @@
         <v>205260.4424660712</v>
       </c>
       <c r="N2" t="n">
-        <v>205260.442466071</v>
+        <v>205260.4424660708</v>
       </c>
       <c r="O2" t="n">
         <v>205260.4424660709</v>
@@ -26421,28 +26421,28 @@
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012793</v>
+        <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
+        <v>5677.536566682751</v>
+      </c>
+      <c r="F4" t="n">
         <v>5677.536566682745</v>
       </c>
-      <c r="F4" t="n">
-        <v>5677.53656668275</v>
-      </c>
       <c r="G4" t="n">
+        <v>5677.536566682751</v>
+      </c>
+      <c r="H4" t="n">
         <v>5677.536566682752</v>
-      </c>
-      <c r="H4" t="n">
-        <v>5677.536566682747</v>
       </c>
       <c r="I4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="J4" t="n">
-        <v>5677.536566682753</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="K4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682798</v>
       </c>
       <c r="L4" t="n">
         <v>13668.39582977621</v>
@@ -26451,7 +26451,7 @@
         <v>13668.39582977621</v>
       </c>
       <c r="N4" t="n">
-        <v>13668.39582977621</v>
+        <v>13668.39582977625</v>
       </c>
       <c r="O4" t="n">
         <v>13668.3958297762</v>
@@ -26519,34 +26519,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-631287.8199095279</v>
+        <v>-631647.9029252455</v>
       </c>
       <c r="C6" t="n">
-        <v>-87521.051060372</v>
+        <v>-87521.05106037197</v>
       </c>
       <c r="D6" t="n">
-        <v>-243324.8571541668</v>
+        <v>-243324.8571541669</v>
       </c>
       <c r="E6" t="n">
-        <v>-676066.1078488947</v>
+        <v>-676100.8457743302</v>
       </c>
       <c r="F6" t="n">
-        <v>94986.58353191167</v>
+        <v>94951.84560647592</v>
       </c>
       <c r="G6" t="n">
-        <v>94986.58353191167</v>
+        <v>94951.84560647601</v>
       </c>
       <c r="H6" t="n">
-        <v>94986.58353191173</v>
+        <v>94951.84560647604</v>
       </c>
       <c r="I6" t="n">
-        <v>94986.58353191167</v>
+        <v>94951.84560647592</v>
       </c>
       <c r="J6" t="n">
-        <v>-81436.63566068132</v>
+        <v>-81471.37358611694</v>
       </c>
       <c r="K6" t="n">
-        <v>94986.58353191176</v>
+        <v>94951.845606476</v>
       </c>
       <c r="L6" t="n">
         <v>69000.21278874783</v>
@@ -26555,10 +26555,10 @@
         <v>-35780.57992567889</v>
       </c>
       <c r="N6" t="n">
-        <v>88427.93078237935</v>
+        <v>88427.93078237915</v>
       </c>
       <c r="O6" t="n">
-        <v>88427.93078237932</v>
+        <v>88427.93078237926</v>
       </c>
       <c r="P6" t="n">
         <v>88427.93078237932</v>
@@ -26707,7 +26707,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.039613253960852e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26722,10 +26722,10 @@
         <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.039613253960852e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.039613253960852e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>367.9762021548654</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27391,7 +27391,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>129.7438394042427</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,22 +27534,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>96.97823614249947</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,31 +27579,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>4.732187490914384</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,19 +27616,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>196.4066683634438</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>236.0601620756971</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27661,19 +27661,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>83.64851512467956</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>57.23683619419245</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,10 +27865,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>111.8035385010007</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
         <v>118.4960408938903</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>50.64999467709015</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28017,16 +28017,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>123.266557879417</v>
@@ -28062,22 +28062,22 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>216.3925204775584</v>
+        <v>211.4747159935139</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28102,10 +28102,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28324,13 +28324,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28536,7 +28536,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>1.181774678116199e-12</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
   </sheetData>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31835,10 +31835,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31853,7 +31853,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -32072,16 +32072,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32090,13 +32090,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>549.9198891312103</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32312,10 +32312,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32327,7 +32327,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>549.9198891312103</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32552,10 +32552,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,10 +32564,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32789,10 +32789,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L24" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32804,10 +32804,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33020,19 +33020,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>277.4567226539314</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33047,7 +33047,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33968,10 +33968,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>153.972377511982</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33980,16 +33980,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34205,13 +34205,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34442,10 +34442,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34460,10 +34460,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>543.0832917018711</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35176,16 +35176,16 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>452.9426864297107</v>
+        <v>384.2293341996233</v>
       </c>
       <c r="M8" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
         <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
-        <v>552.6880856233105</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P8" t="n">
         <v>433.6515619588832</v>
@@ -35258,10 +35258,10 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>181.3104407622271</v>
+        <v>349.2738770933423</v>
       </c>
       <c r="N9" t="n">
-        <v>368.6268117378473</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
@@ -35416,7 +35416,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
@@ -35483,10 +35483,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35501,7 +35501,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35656,7 +35656,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
         <v>696.488651224316</v>
@@ -35720,16 +35720,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,13 +35738,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>407.3236446867659</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35899,13 +35899,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,10 +35960,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35975,7 +35975,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>407.3236446867659</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36127,13 +36127,13 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
@@ -36200,10 +36200,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,10 +36212,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36437,10 +36437,10 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L24" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36452,10 +36452,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36598,7 +36598,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
         <v>735.3001107902948</v>
@@ -36668,19 +36668,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>138.9023428740572</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37616,10 +37616,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>27.13475084531533</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37628,16 +37628,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37701,10 +37701,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
         <v>288.6172359016746</v>
@@ -37953,7 +37953,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
         <v>144.686904791938</v>
@@ -38090,10 +38090,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38108,10 +38108,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
